--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Listado de CU y Listado de RF y RNF/Listado de CU.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Listado de CU y Listado de RF y RNF/Listado de CU.xlsx
@@ -82,7 +82,7 @@
     <t>CU11</t>
   </si>
   <si>
-    <t>Gestionar las calificaciones y calendario de éstas</t>
+    <t>Gestionar las calificaciones</t>
   </si>
   <si>
     <t>CU12</t>
@@ -224,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -242,6 +242,9 @@
     </xf>
     <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,7 +557,7 @@
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
     </row>
